--- a/data/vacuna/readme.xlsx
+++ b/data/vacuna/readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\prodebat\vacuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FDA91F-80FF-4803-8099-92F4D5418040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFCA83-D860-4D0B-BA1F-1A4FA1B1D3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15000" xr2:uid="{FDF1A26A-CDBD-4549-8649-F68E172B8E03}"/>
+    <workbookView xWindow="720" yWindow="700" windowWidth="23540" windowHeight="12130" xr2:uid="{FDF1A26A-CDBD-4549-8649-F68E172B8E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t xml:space="preserve">Columna </t>
   </si>
@@ -277,13 +277,16 @@
   </si>
   <si>
     <t>"#CovidVaccine"  "#VaccineCovid"  "vacuna" "vaccine"</t>
+  </si>
+  <si>
+    <t>Hacer click para descargar el archivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +302,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +334,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -383,10 +400,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -395,8 +413,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -770,19 +791,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C3C61-1AB9-4D36-85FA-D59665C82B51}">
-  <dimension ref="A2:B54"/>
+  <dimension ref="A2:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.7265625" customWidth="1"/>
     <col min="2" max="2" width="95.08984375" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -790,7 +812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -798,7 +820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -806,28 +828,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B5">
         <v>5018158</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B6">
         <v>1978700</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -835,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -843,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -851,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -859,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -867,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1142,10 +1170,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{5A471CE2-C48A-45B9-836B-78D35E554474}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{3F40536B-DF43-470E-9F27-4C76C7546449}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>